--- a/test.xlsx
+++ b/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>schema_user</t>
   </si>
@@ -39,7 +39,31 @@
     <t>column_comment</t>
   </si>
   <si>
-    <t>s</t>
+    <t>dbo</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+  </si>
+  <si>
+    <t>名字</t>
   </si>
 </sst>
 </file>
@@ -1004,13 +1028,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="15.5454545454545" customWidth="1"/>
     <col min="2" max="2" width="16.8181818181818" customWidth="1"/>
@@ -1045,141 +1069,50 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
